--- a/src/test/TestCases.xlsx
+++ b/src/test/TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t xml:space="preserve">A and B are the same File located in different directories.</t>
   </si>
@@ -40,7 +40,22 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">Deleted</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not existing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 is equivalent to 12. Since Create A will be synced asap, and thus B will already be created.</t>
   </si>
 </sst>
 </file>
@@ -50,11 +65,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,6 +92,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3FAF46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -93,14 +124,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,13 +182,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -176,14 +207,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,8 +235,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -229,7 +272,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -264,10 +307,10 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -281,13 +324,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="7.44"/>
   </cols>
@@ -299,12 +342,16 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -320,208 +367,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
